--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Matthew Scott Wade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1323,7 +1388,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1943,7 +2007,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -1951,7 +2014,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2003,7 +2066,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2055,7 +2118,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2107,7 +2170,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2159,7 +2222,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2263,7 +2326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2303,7 +2366,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -2311,7 +2373,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2363,7 +2425,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2403,7 +2465,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -2411,7 +2472,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2463,7 +2524,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2515,7 +2576,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2567,7 +2628,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2619,7 +2680,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2671,7 +2732,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2723,7 +2784,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2775,7 +2836,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2827,7 +2888,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2879,7 +2940,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2931,7 +2992,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2983,7 +3044,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3035,7 +3096,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3087,7 +3148,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3139,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3179,7 +3240,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -3187,7 +3247,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3227,7 +3287,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3235,7 +3294,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3275,7 +3334,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>15/01/2016</t>
@@ -3283,7 +3341,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3335,7 +3393,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3387,7 +3445,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3439,7 +3497,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3491,7 +3549,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3543,7 +3601,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3595,7 +3653,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3635,7 +3693,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -3643,7 +3700,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3695,7 +3752,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3747,7 +3804,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3799,7 +3856,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3839,7 +3896,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3847,7 +3903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3887,7 +3943,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -3895,7 +3950,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3947,7 +4002,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3999,7 +4054,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4051,7 +4106,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4103,7 +4158,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4155,7 +4210,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4207,7 +4262,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4247,7 +4302,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -4255,7 +4309,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4307,7 +4361,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4359,7 +4413,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4411,7 +4465,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4463,7 +4517,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4515,7 +4569,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4567,7 +4621,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4619,7 +4673,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4671,7 +4725,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4723,7 +4777,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4775,7 +4829,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4815,7 +4869,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -4823,7 +4876,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4875,7 +4928,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4927,7 +4980,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4967,7 +5020,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -4975,7 +5027,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5015,7 +5067,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -5023,7 +5074,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5075,7 +5126,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5127,7 +5178,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5179,7 +5230,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5231,7 +5282,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5283,7 +5334,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5335,7 +5386,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5387,7 +5438,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5439,7 +5490,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5470,6 +5521,509 @@
       <c r="J98" t="inlineStr">
         <is>
           <t>52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.31%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1388,6 +1387,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -2007,6 +2007,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -2366,6 +2367,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -2465,6 +2467,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -3240,6 +3243,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -3287,6 +3291,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3334,6 +3339,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>15/01/2016</t>
@@ -3693,6 +3699,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -3896,6 +3903,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3943,6 +3951,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -4302,6 +4311,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -4869,6 +4879,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -5020,6 +5031,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -5067,6 +5079,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -5521,509 +5534,6 @@
       <c r="J98" t="inlineStr">
         <is>
           <t>52</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3947</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3950</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3966</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3967</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3968</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.31%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3973</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3975</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3977</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3981</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.17%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4032</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4035</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4041</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4067</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.57%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4069</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.99%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.19%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>19.25%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3910.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1387,7 +1388,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -2007,7 +2007,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/02/2013</t>
@@ -2367,7 +2366,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -2467,7 +2465,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -3243,7 +3240,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -3291,7 +3287,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3339,7 +3334,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>15/01/2016</t>
@@ -3699,7 +3693,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -3903,7 +3896,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3951,7 +3943,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -4311,7 +4302,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -4879,7 +4869,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -5031,7 +5020,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -5079,7 +5067,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -5534,6 +5521,2411 @@
       <c r="J98" t="inlineStr">
         <is>
           <t>52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.02%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3371</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.49%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15.63%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3389</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19.94%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3392</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.21%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3398</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3404</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5.95%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.25%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.51%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3426</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8.28%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5.03%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3462</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13.96%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9.31%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3472</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3474</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3511</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3555</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3557</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3558</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15.86%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3559</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12.34%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.28%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16.72%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8.90%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.11%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>36.89%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3937</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>15.07%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4.58%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>37.31%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>19.25%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
